--- a/geo/a.xlsx
+++ b/geo/a.xlsx
@@ -600,25 +600,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>204.4750969572101</v>
+        <v>212.3897266062013</v>
       </c>
       <c r="D5" t="n">
-        <v>41810.06527566045</v>
+        <v>45109.39596785694</v>
       </c>
       <c r="E5" t="n">
-        <v>111.8903281386002</v>
+        <v>117.1594356773392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7685208544392228</v>
+        <v>0.7502542900481672</v>
       </c>
       <c r="G5" t="n">
-        <v>61.29364924905734</v>
+        <v>66.71504095686809</v>
       </c>
       <c r="H5" t="n">
-        <v>31.8247980132763</v>
+        <v>34.06838452029956</v>
       </c>
       <c r="I5" t="n">
-        <v>42.06141577687713</v>
+        <v>44.58809855828566</v>
       </c>
     </row>
     <row r="6">
@@ -629,25 +629,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>251.1515370945826</v>
+        <v>252.9315743791161</v>
       </c>
       <c r="D6" t="n">
-        <v>63077.09458497148</v>
+        <v>63974.38131789833</v>
       </c>
       <c r="E6" t="n">
-        <v>143.4627643716502</v>
+        <v>144.7814780756655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6522204021205285</v>
+        <v>0.64727315429288</v>
       </c>
       <c r="G6" t="n">
-        <v>117.7646336930636</v>
+        <v>117.9797277160395</v>
       </c>
       <c r="H6" t="n">
-        <v>43.9614711115537</v>
+        <v>44.39718861007679</v>
       </c>
       <c r="I6" t="n">
-        <v>57.65801396022516</v>
+        <v>58.15845229744227</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>217.0883802799868</v>
+        <v>223.2176590451196</v>
       </c>
       <c r="D7" t="n">
-        <v>47127.36485258814</v>
+        <v>49826.12330958326</v>
       </c>
       <c r="E7" t="n">
-        <v>119.7842422054357</v>
+        <v>124.0656505615306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7393524212178131</v>
+        <v>0.7244263828166845</v>
       </c>
       <c r="G7" t="n">
-        <v>75.41283521177853</v>
+        <v>79.53251975239168</v>
       </c>
       <c r="H7" t="n">
-        <v>34.04408524485285</v>
+        <v>35.97821434897747</v>
       </c>
       <c r="I7" t="n">
-        <v>45.96096299222417</v>
+        <v>47.9810329990345</v>
       </c>
     </row>
     <row r="8">
@@ -689,25 +689,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>180.3275742271762</v>
+        <v>213.2665011982465</v>
       </c>
       <c r="D8" t="n">
-        <v>32518.03402665773</v>
+        <v>45482.60053334165</v>
       </c>
       <c r="E8" t="n">
-        <v>96.06438935112162</v>
+        <v>117.5513989429431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8199656785470516</v>
+        <v>0.7481880633305527</v>
       </c>
       <c r="G8" t="n">
-        <v>46.01870478373092</v>
+        <v>65.18961038028252</v>
       </c>
       <c r="H8" t="n">
-        <v>25.88630627628309</v>
+        <v>33.52023773910638</v>
       </c>
       <c r="I8" t="n">
-        <v>34.84283960017828</v>
+        <v>44.10296707848546</v>
       </c>
     </row>
     <row r="9">
@@ -718,25 +718,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>245.9090482886639</v>
+        <v>252.3787475920975</v>
       </c>
       <c r="D9" t="n">
-        <v>60471.26003023641</v>
+        <v>63695.03223615564</v>
       </c>
       <c r="E9" t="n">
-        <v>139.1147053690645</v>
+        <v>144.3897344274109</v>
       </c>
       <c r="F9" t="n">
-        <v>0.666587837709455</v>
+        <v>0.6488133633331933</v>
       </c>
       <c r="G9" t="n">
-        <v>107.7615888174742</v>
+        <v>112.8983413844712</v>
       </c>
       <c r="H9" t="n">
-        <v>41.48368481565582</v>
+        <v>44.13286374636161</v>
       </c>
       <c r="I9" t="n">
-        <v>55.48293452336124</v>
+        <v>57.54215248169891</v>
       </c>
     </row>
     <row r="10">
@@ -747,25 +747,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>198.7638127437067</v>
+        <v>223.687668021671</v>
       </c>
       <c r="D10" t="n">
-        <v>39507.05325641531</v>
+        <v>50036.17282497331</v>
       </c>
       <c r="E10" t="n">
-        <v>106.8280660179229</v>
+        <v>124.2616671163417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7814981209258499</v>
+        <v>0.7232646607942026</v>
       </c>
       <c r="G10" t="n">
-        <v>61.45600006253985</v>
+        <v>77.11800957016203</v>
       </c>
       <c r="H10" t="n">
-        <v>28.84447360716271</v>
+        <v>35.8989187199584</v>
       </c>
       <c r="I10" t="n">
-        <v>40.00338959550545</v>
+        <v>47.46310609082383</v>
       </c>
     </row>
     <row r="11">
@@ -778,25 +778,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>172.3681769787138</v>
+        <v>211.8131792658207</v>
       </c>
       <c r="D11" t="n">
-        <v>29710.78843496521</v>
+        <v>44864.82291069469</v>
       </c>
       <c r="E11" t="n">
-        <v>91.57341577634499</v>
+        <v>116.6528725909557</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8355078406235728</v>
+        <v>0.7516083554371076</v>
       </c>
       <c r="G11" t="n">
-        <v>42.14205947045189</v>
+        <v>64.16376049440402</v>
       </c>
       <c r="H11" t="n">
-        <v>24.53718860181452</v>
+        <v>33.7394191518917</v>
       </c>
       <c r="I11" t="n">
-        <v>32.88922990915658</v>
+        <v>43.90355349083377</v>
       </c>
     </row>
     <row r="12">
@@ -807,25 +807,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>245.8874160236744</v>
+        <v>252.9646531078764</v>
       </c>
       <c r="D12" t="n">
-        <v>60460.62135879955</v>
+        <v>63991.11572198826</v>
       </c>
       <c r="E12" t="n">
-        <v>139.1477251552906</v>
+        <v>144.9161559779944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6666464947052888</v>
+        <v>0.6471808880849412</v>
       </c>
       <c r="G12" t="n">
-        <v>105.2367086758031</v>
+        <v>111.4284350645573</v>
       </c>
       <c r="H12" t="n">
-        <v>41.59254901118843</v>
+        <v>44.00129555714123</v>
       </c>
       <c r="I12" t="n">
-        <v>55.07476132793339</v>
+        <v>57.53724510622013</v>
       </c>
     </row>
     <row r="13">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>193.3882899774947</v>
+        <v>222.8158068457923</v>
       </c>
       <c r="D13" t="n">
-        <v>37399.03070041956</v>
+        <v>49646.88378034143</v>
       </c>
       <c r="E13" t="n">
-        <v>103.4682061325393</v>
+        <v>123.719414072172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7931569729952831</v>
+        <v>0.7254177038774965</v>
       </c>
       <c r="G13" t="n">
-        <v>57.91733050838342</v>
+        <v>75.98113425358103</v>
       </c>
       <c r="H13" t="n">
-        <v>27.70250398499593</v>
+        <v>35.85926827662228</v>
       </c>
       <c r="I13" t="n">
-        <v>38.4361784326784</v>
+        <v>47.31232401557826</v>
       </c>
     </row>
     <row r="14">
@@ -867,25 +867,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>168.3119844812754</v>
+        <v>212.5515720898156</v>
       </c>
       <c r="D14" t="n">
-        <v>28328.92412002509</v>
+        <v>45178.17079785207</v>
       </c>
       <c r="E14" t="n">
-        <v>88.73660301992652</v>
+        <v>116.9130617880801</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8431584570192731</v>
+        <v>0.7498735219537288</v>
       </c>
       <c r="G14" t="n">
-        <v>40.19781973178393</v>
+        <v>64.17614742621032</v>
       </c>
       <c r="H14" t="n">
-        <v>23.50897260221306</v>
+        <v>33.70204931285453</v>
       </c>
       <c r="I14" t="n">
-        <v>31.87503542183019</v>
+        <v>44.01034708315365</v>
       </c>
     </row>
     <row r="15">
@@ -896,25 +896,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>245.0069292043333</v>
+        <v>253.2008638651642</v>
       </c>
       <c r="D15" t="n">
-        <v>60028.39535813719</v>
+        <v>64110.6774620654</v>
       </c>
       <c r="E15" t="n">
-        <v>138.7045295393968</v>
+        <v>144.8372007124044</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6690296004220702</v>
+        <v>0.6465216767791671</v>
       </c>
       <c r="G15" t="n">
-        <v>105.8220381918895</v>
+        <v>112.1460990039648</v>
       </c>
       <c r="H15" t="n">
-        <v>41.23126323792403</v>
+        <v>44.10102726131703</v>
       </c>
       <c r="I15" t="n">
-        <v>54.9362324214226</v>
+        <v>57.54461255958704</v>
       </c>
     </row>
     <row r="16">
@@ -925,25 +925,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>190.4064079204333</v>
+        <v>223.4094451667733</v>
       </c>
       <c r="D16" t="n">
-        <v>36254.60017716245</v>
+        <v>49911.7801897255</v>
       </c>
       <c r="E16" t="n">
-        <v>101.2298586917757</v>
+        <v>123.8948085063851</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7994864812524165</v>
+        <v>0.7239526398334952</v>
       </c>
       <c r="G16" t="n">
-        <v>56.60554758032539</v>
+        <v>76.16985841987325</v>
       </c>
       <c r="H16" t="n">
-        <v>26.85065318013066</v>
+        <v>35.88469233783497</v>
       </c>
       <c r="I16" t="n">
-        <v>37.64092266757223</v>
+        <v>47.39425853807221</v>
       </c>
     </row>
     <row r="17">
@@ -956,25 +956,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>168.0031498309721</v>
+        <v>212.3280355796343</v>
       </c>
       <c r="D17" t="n">
-        <v>28225.05835312805</v>
+        <v>45083.19469310644</v>
       </c>
       <c r="E17" t="n">
-        <v>88.54998609802864</v>
+        <v>116.8144619027489</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8437335041715754</v>
+        <v>0.7503993519764819</v>
       </c>
       <c r="G17" t="n">
-        <v>39.96000728062227</v>
+        <v>64.17954578787513</v>
       </c>
       <c r="H17" t="n">
-        <v>23.83821482689938</v>
+        <v>33.6373967881255</v>
       </c>
       <c r="I17" t="n">
-        <v>31.7671226334536</v>
+        <v>44.00948267542442</v>
       </c>
     </row>
     <row r="18">
@@ -985,25 +985,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>245.4508885448771</v>
+        <v>253.007474305661</v>
       </c>
       <c r="D18" t="n">
-        <v>60246.13868746969</v>
+        <v>64012.78205452974</v>
       </c>
       <c r="E18" t="n">
-        <v>138.679995971716</v>
+        <v>144.7580938057344</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6678290586403909</v>
+        <v>0.6470614293738453</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6739889174144</v>
+        <v>111.847245045968</v>
       </c>
       <c r="H18" t="n">
-        <v>40.86508339406992</v>
+        <v>43.97466872776717</v>
       </c>
       <c r="I18" t="n">
-        <v>54.8994915597404</v>
+        <v>57.54480265205322</v>
       </c>
     </row>
     <row r="19">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>190.3448052468276</v>
+        <v>223.1951482108165</v>
       </c>
       <c r="D19" t="n">
-        <v>36231.14488445273</v>
+        <v>49816.07418484833</v>
       </c>
       <c r="E19" t="n">
-        <v>101.083766741103</v>
+        <v>123.8010823627355</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7996162055701996</v>
+        <v>0.7244819615667214</v>
       </c>
       <c r="G19" t="n">
-        <v>56.3901782120446</v>
+        <v>76.09768599503626</v>
       </c>
       <c r="H19" t="n">
-        <v>26.85495442267342</v>
+        <v>35.78464321974565</v>
       </c>
       <c r="I19" t="n">
-        <v>37.55080467555376</v>
+        <v>47.39365778227862</v>
       </c>
     </row>
     <row r="20">
